--- a/Figures/PERMANOVA_den_1.xlsx
+++ b/Figures/PERMANOVA_den_1.xlsx
@@ -229,19 +229,19 @@
         <v>1.0</v>
       </c>
       <c r="C2" t="n">
-        <v>716.0924968134722</v>
+        <v>0.2665998480081517</v>
       </c>
       <c r="D2" t="n">
-        <v>716.0924968134722</v>
+        <v>0.2665998480081517</v>
       </c>
       <c r="E2" t="n">
-        <v>0.11485469909576415</v>
+        <v>0.29757278131017006</v>
       </c>
       <c r="F2" t="n">
-        <v>7.628962546207384E-4</v>
+        <v>0.0019391581333836599</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7528</v>
+        <v>0.5997</v>
       </c>
     </row>
     <row r="3">
@@ -252,19 +252,19 @@
         <v>1.0</v>
       </c>
       <c r="C3" t="n">
-        <v>39905.63194923128</v>
+        <v>8.04993745311914</v>
       </c>
       <c r="D3" t="n">
-        <v>39905.63194923128</v>
+        <v>8.04993745311914</v>
       </c>
       <c r="E3" t="n">
-        <v>6.400499055849125</v>
+        <v>8.985159951120172</v>
       </c>
       <c r="F3" t="n">
-        <v>0.04251386139055196</v>
+        <v>0.05855255283179465</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0077</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="4">
@@ -275,19 +275,19 @@
         <v>1.0</v>
       </c>
       <c r="C4" t="n">
-        <v>221.4702521460058</v>
+        <v>0.15399949709097172</v>
       </c>
       <c r="D4" t="n">
-        <v>221.4702521460058</v>
+        <v>0.15399949709097172</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03552180658516007</v>
+        <v>0.17189079068164623</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3594553304767945E-4</v>
+        <v>0.0011201408386092555</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8584</v>
+        <v>0.6833</v>
       </c>
     </row>
     <row r="5">
@@ -298,16 +298,16 @@
         <v>144.0</v>
       </c>
       <c r="C5" t="n">
-        <v>897806.7101561278</v>
+        <v>129.01172595203948</v>
       </c>
       <c r="D5" t="n">
-        <v>6234.768820528665</v>
+        <v>0.8959147635558298</v>
       </c>
       <c r="E5" t="e">
         <v>#N/A</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9564872968217796</v>
+        <v>0.9383881481962124</v>
       </c>
       <c r="G5" t="e">
         <v>#N/A</v>
@@ -321,7 +321,7 @@
         <v>147.0</v>
       </c>
       <c r="C6" t="n">
-        <v>938649.9048543186</v>
+        <v>137.48226275025775</v>
       </c>
       <c r="D6" t="e">
         <v>#N/A</v>
@@ -344,19 +344,19 @@
         <v>1.0</v>
       </c>
       <c r="C7" t="n">
-        <v>70314.98679430988</v>
+        <v>2.6843161657517656</v>
       </c>
       <c r="D7" t="n">
-        <v>70314.98679430988</v>
+        <v>2.6843161657517656</v>
       </c>
       <c r="E7" t="n">
-        <v>1.7308142793354095</v>
+        <v>0.869989211860278</v>
       </c>
       <c r="F7" t="n">
-        <v>0.011857187909719338</v>
+        <v>0.005992891628625375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1964</v>
+        <v>0.3491</v>
       </c>
     </row>
     <row r="8">
@@ -367,19 +367,19 @@
         <v>1.0</v>
       </c>
       <c r="C8" t="n">
-        <v>4902.044627696916</v>
+        <v>0.10534124106987797</v>
       </c>
       <c r="D8" t="n">
-        <v>4902.044627696916</v>
+        <v>0.10534124106987797</v>
       </c>
       <c r="E8" t="n">
-        <v>0.12066458697314082</v>
+        <v>0.03414118815959241</v>
       </c>
       <c r="F8" t="n">
-        <v>8.266298116852683E-4</v>
+        <v>2.351804343360122E-4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7349</v>
+        <v>0.8546</v>
       </c>
     </row>
     <row r="9">
@@ -390,19 +390,19 @@
         <v>1.0</v>
       </c>
       <c r="C9" t="n">
-        <v>4885.409712728448</v>
+        <v>0.8209136992146724</v>
       </c>
       <c r="D9" t="n">
-        <v>4885.409712728448</v>
+        <v>0.8209136992146724</v>
       </c>
       <c r="E9" t="n">
-        <v>0.12025511596737673</v>
+        <v>0.26605884630772036</v>
       </c>
       <c r="F9" t="n">
-        <v>8.238246726724385E-4</v>
+        <v>0.0018327374765370495</v>
       </c>
       <c r="G9" t="n">
-        <v>0.736</v>
+        <v>0.6112</v>
       </c>
     </row>
     <row r="10">
@@ -413,16 +413,16 @@
         <v>144.0</v>
       </c>
       <c r="C10" t="n">
-        <v>5850054.635710836</v>
+        <v>444.3061162123164</v>
       </c>
       <c r="D10" t="n">
-        <v>40625.379414658586</v>
+        <v>3.0854591403633083</v>
       </c>
       <c r="E10" t="e">
         <v>#N/A</v>
       </c>
       <c r="F10" t="n">
-        <v>0.986492357605923</v>
+        <v>0.9919391904605015</v>
       </c>
       <c r="G10" t="e">
         <v>#N/A</v>
@@ -436,7 +436,7 @@
         <v>147.0</v>
       </c>
       <c r="C11" t="n">
-        <v>5930157.076845571</v>
+        <v>447.91668731835273</v>
       </c>
       <c r="D11" t="e">
         <v>#N/A</v>
@@ -459,19 +459,19 @@
         <v>1.0</v>
       </c>
       <c r="C12" t="n">
-        <v>2849.6055778247014</v>
+        <v>0.2787109965819825</v>
       </c>
       <c r="D12" t="n">
-        <v>2849.6055778247014</v>
+        <v>0.2787109965819825</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5894688813863215</v>
+        <v>0.3899439556233056</v>
       </c>
       <c r="F12" t="n">
-        <v>0.004034113109587877</v>
+        <v>0.002674055261177791</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4871</v>
+        <v>0.5332</v>
       </c>
     </row>
     <row r="13">
@@ -482,19 +482,19 @@
         <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>965.8016071292027</v>
+        <v>0.003316528784480466</v>
       </c>
       <c r="D13" t="n">
-        <v>965.8016071292027</v>
+        <v>0.003316528784480466</v>
       </c>
       <c r="E13" t="n">
-        <v>0.19978554134855248</v>
+        <v>0.004640148286285702</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0013672604218985128</v>
+        <v>3.1819990433635044E-5</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6929</v>
+        <v>0.9436</v>
       </c>
     </row>
     <row r="14">
@@ -505,19 +505,19 @@
         <v>1.0</v>
       </c>
       <c r="C14" t="n">
-        <v>6438.200664764879</v>
+        <v>1.0223436065839182</v>
       </c>
       <c r="D14" t="n">
-        <v>6438.200664764879</v>
+        <v>1.0223436065839182</v>
       </c>
       <c r="E14" t="n">
-        <v>1.3318049955870377</v>
+        <v>1.4303587402238187</v>
       </c>
       <c r="F14" t="n">
-        <v>0.00911439460464276</v>
+        <v>0.009808738562323137</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2705</v>
+        <v>0.2384</v>
       </c>
     </row>
     <row r="15">
@@ -528,16 +528,16 @@
         <v>144.0</v>
       </c>
       <c r="C15" t="n">
-        <v>696123.6057817097</v>
+        <v>102.92346612644043</v>
       </c>
       <c r="D15" t="n">
-        <v>4834.191706817428</v>
+        <v>0.7147462925447252</v>
       </c>
       <c r="E15" t="e">
         <v>#N/A</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9854842318638709</v>
+        <v>0.9874853861860655</v>
       </c>
       <c r="G15" t="e">
         <v>#N/A</v>
@@ -551,7 +551,7 @@
         <v>147.0</v>
       </c>
       <c r="C16" t="n">
-        <v>706377.2136314284</v>
+        <v>104.2278372583908</v>
       </c>
       <c r="D16" t="e">
         <v>#N/A</v>
@@ -574,19 +574,19 @@
         <v>1.0</v>
       </c>
       <c r="C17" t="n">
-        <v>18.35484656261561</v>
+        <v>0.02078980682888689</v>
       </c>
       <c r="D17" t="n">
-        <v>18.35484656261561</v>
+        <v>0.02078980682888689</v>
       </c>
       <c r="E17" t="n">
-        <v>0.06087123128343447</v>
+        <v>0.07813472959791257</v>
       </c>
       <c r="F17" t="n">
-        <v>4.21960992023461E-4</v>
+        <v>5.388276286779248E-4</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8151</v>
+        <v>0.7736</v>
       </c>
     </row>
     <row r="18">
@@ -597,19 +597,19 @@
         <v>1.0</v>
       </c>
       <c r="C18" t="n">
-        <v>59.1184120512939</v>
+        <v>0.24068105208406668</v>
       </c>
       <c r="D18" t="n">
-        <v>59.1184120512939</v>
+        <v>0.24068105208406668</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1960577834746487</v>
+        <v>0.9045562125089034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0013590777624272819</v>
+        <v>0.0062379415850065045</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6557</v>
+        <v>0.3506</v>
       </c>
     </row>
     <row r="19">
@@ -620,19 +620,19 @@
         <v>1.0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.31043186228912134</v>
+        <v>0.006937995123558305</v>
       </c>
       <c r="D19" t="n">
-        <v>0.31043186228912134</v>
+        <v>0.006937995123558305</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0010295030047069817</v>
+        <v>0.02607520009169266</v>
       </c>
       <c r="F19" t="n">
-        <v>7.1365421726817026E-6</v>
+        <v>1.7981809503932192E-4</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9765</v>
+        <v>0.8685</v>
       </c>
     </row>
     <row r="20">
@@ -643,16 +643,16 @@
         <v>144.0</v>
       </c>
       <c r="C20" t="n">
-        <v>43421.13424171759</v>
+        <v>38.31500024081087</v>
       </c>
       <c r="D20" t="n">
-        <v>301.5356544563722</v>
+        <v>0.2660763905611866</v>
       </c>
       <c r="E20" t="e">
         <v>#N/A</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9982118247033765</v>
+        <v>0.9930434126912762</v>
       </c>
       <c r="G20" t="e">
         <v>#N/A</v>
@@ -666,7 +666,7 @@
         <v>147.0</v>
       </c>
       <c r="C21" t="n">
-        <v>43498.91793219379</v>
+        <v>38.58340909484738</v>
       </c>
       <c r="D21" t="e">
         <v>#N/A</v>
@@ -689,19 +689,19 @@
         <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>1336.6423806016774</v>
+        <v>0.7369877416089986</v>
       </c>
       <c r="D22" t="n">
-        <v>1336.6423806016774</v>
+        <v>0.7369877416089986</v>
       </c>
       <c r="E22" t="n">
-        <v>2.423315133774362</v>
+        <v>2.0768337315805487</v>
       </c>
       <c r="F22" t="n">
-        <v>0.016200837170623143</v>
+        <v>0.01382020410718638</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1191</v>
+        <v>0.1505</v>
       </c>
     </row>
     <row r="23">
@@ -712,19 +712,19 @@
         <v>1.0</v>
       </c>
       <c r="C23" t="n">
-        <v>1137.1788219239638</v>
+        <v>0.9884033681827945</v>
       </c>
       <c r="D23" t="n">
-        <v>1137.1788219239638</v>
+        <v>0.9884033681827945</v>
       </c>
       <c r="E23" t="n">
-        <v>2.061690313706475</v>
+        <v>2.7853237436056593</v>
       </c>
       <c r="F23" t="n">
-        <v>0.013783229677019617</v>
+        <v>0.01853482156798729</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1515</v>
+        <v>0.0984</v>
       </c>
     </row>
     <row r="24">
@@ -735,19 +735,19 @@
         <v>1.0</v>
       </c>
       <c r="C24" t="n">
-        <v>603.7653276533078</v>
+        <v>0.5014287321337436</v>
       </c>
       <c r="D24" t="n">
-        <v>603.7653276533078</v>
+        <v>0.5014287321337436</v>
       </c>
       <c r="E24" t="n">
-        <v>1.0946186332142858</v>
+        <v>1.4130277155023863</v>
       </c>
       <c r="F24" t="n">
-        <v>0.007317966199886701</v>
+        <v>0.009402934447955287</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3059</v>
+        <v>0.2379</v>
       </c>
     </row>
     <row r="25">
@@ -758,16 +758,16 @@
         <v>144.0</v>
       </c>
       <c r="C25" t="n">
-        <v>79426.93879308034</v>
+        <v>51.10001497853646</v>
       </c>
       <c r="D25" t="n">
-        <v>551.5759638408357</v>
+        <v>0.35486121512872537</v>
       </c>
       <c r="E25" t="e">
         <v>#N/A</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9626979669524706</v>
+        <v>0.958242039876871</v>
       </c>
       <c r="G25" t="e">
         <v>#N/A</v>
@@ -781,7 +781,7 @@
         <v>147.0</v>
       </c>
       <c r="C26" t="n">
-        <v>82504.52532325928</v>
+        <v>53.326834820462</v>
       </c>
       <c r="D26" t="e">
         <v>#N/A</v>
@@ -804,19 +804,19 @@
         <v>1.0</v>
       </c>
       <c r="C27" t="n">
-        <v>408.41638388345297</v>
+        <v>0.737121511836743</v>
       </c>
       <c r="D27" t="n">
-        <v>408.41638388345297</v>
+        <v>0.737121511836743</v>
       </c>
       <c r="E27" t="n">
-        <v>0.5046471615027504</v>
+        <v>1.289584052386715</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0034765487227870215</v>
+        <v>0.008853842695269116</v>
       </c>
       <c r="G27" t="n">
-        <v>0.4817</v>
+        <v>0.2559</v>
       </c>
     </row>
     <row r="28">
@@ -827,19 +827,19 @@
         <v>1.0</v>
       </c>
       <c r="C28" t="n">
-        <v>524.1153822328336</v>
+        <v>0.12136072294308964</v>
       </c>
       <c r="D28" t="n">
-        <v>524.1153822328336</v>
+        <v>0.12136072294308964</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6476070754771805</v>
+        <v>0.21231893301221882</v>
       </c>
       <c r="F28" t="n">
-        <v>0.004461409322929007</v>
+        <v>0.0014577091199588195</v>
       </c>
       <c r="G28" t="n">
-        <v>0.425</v>
+        <v>0.6403</v>
       </c>
     </row>
     <row r="29">
@@ -850,19 +850,19 @@
         <v>1.0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.254828146700447</v>
+        <v>0.08606321918091919</v>
       </c>
       <c r="D29" t="n">
-        <v>4.254828146700447</v>
+        <v>0.08606321918091919</v>
       </c>
       <c r="E29" t="n">
-        <v>0.005257347725616994</v>
+        <v>0.1505664305959868</v>
       </c>
       <c r="F29" t="n">
-        <v>3.621822713975852E-5</v>
+        <v>0.001033737575474654</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9423</v>
+        <v>0.7039</v>
       </c>
     </row>
     <row r="30">
@@ -873,16 +873,16 @@
         <v>144.0</v>
       </c>
       <c r="C30" t="n">
-        <v>116540.7511737222</v>
+        <v>82.30987154969914</v>
       </c>
       <c r="D30" t="n">
-        <v>809.3107720397375</v>
+        <v>0.571596330206244</v>
       </c>
       <c r="E30" t="e">
         <v>#N/A</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9920258237271442</v>
+        <v>0.9886547106092973</v>
       </c>
       <c r="G30" t="e">
         <v>#N/A</v>
@@ -896,7 +896,7 @@
         <v>147.0</v>
       </c>
       <c r="C31" t="n">
-        <v>117477.53776798518</v>
+        <v>83.2544170036599</v>
       </c>
       <c r="D31" t="e">
         <v>#N/A</v>
@@ -919,19 +919,19 @@
         <v>1.0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.025092747103527376</v>
+        <v>0.00965780160988203</v>
       </c>
       <c r="D32" t="n">
-        <v>0.025092747103527376</v>
+        <v>0.00965780160988203</v>
       </c>
       <c r="E32" t="n">
-        <v>4.11649160551326E-5</v>
+        <v>0.024196518914762974</v>
       </c>
       <c r="F32" t="n">
-        <v>2.6057343718606565E-7</v>
+        <v>1.5243169510279552E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9943</v>
+        <v>0.8765</v>
       </c>
     </row>
     <row r="33">
@@ -942,16 +942,16 @@
         <v>1.0</v>
       </c>
       <c r="C33" t="n">
-        <v>8492.709753691164</v>
+        <v>5.872276968323881</v>
       </c>
       <c r="D33" t="n">
-        <v>8492.709753691164</v>
+        <v>5.872276968323881</v>
       </c>
       <c r="E33" t="n">
-        <v>13.932379848604059</v>
+        <v>14.71231927060794</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08819180149597276</v>
+        <v>0.0926837357560556</v>
       </c>
       <c r="G33" t="n">
         <v>1.0E-4</v>
@@ -965,19 +965,19 @@
         <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>27.890078259084476</v>
+        <v>1.1190948327222117E-4</v>
       </c>
       <c r="D34" t="n">
-        <v>27.890078259084476</v>
+        <v>1.1190948327222117E-4</v>
       </c>
       <c r="E34" t="n">
-        <v>0.04575396729459326</v>
+        <v>2.803764291416964E-4</v>
       </c>
       <c r="F34" t="n">
-        <v>2.8962207786075356E-4</v>
+        <v>1.7662976443632895E-6</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8359</v>
+        <v>0.9863</v>
       </c>
     </row>
     <row r="35">
@@ -988,16 +988,16 @@
         <v>144.0</v>
       </c>
       <c r="C35" t="n">
-        <v>87777.55256608654</v>
+        <v>57.47617815282069</v>
       </c>
       <c r="D35" t="n">
-        <v>609.5663372644899</v>
+        <v>0.39914012606125476</v>
       </c>
       <c r="E35" t="e">
         <v>#N/A</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9115183158527294</v>
+        <v>0.9071620662511972</v>
       </c>
       <c r="G35" t="e">
         <v>#N/A</v>
@@ -1011,7 +1011,7 @@
         <v>147.0</v>
       </c>
       <c r="C36" t="n">
-        <v>96298.17749078388</v>
+        <v>63.358224832237724</v>
       </c>
       <c r="D36" t="e">
         <v>#N/A</v>
@@ -1034,19 +1034,19 @@
         <v>1.0</v>
       </c>
       <c r="C37" t="n">
-        <v>28.421574868207294</v>
+        <v>0.023609627504653095</v>
       </c>
       <c r="D37" t="n">
-        <v>28.421574868207294</v>
+        <v>0.023609627504653095</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6660083379997442</v>
+        <v>0.41578310384559447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.004441983236251461</v>
+        <v>0.002777696038530913</v>
       </c>
       <c r="G37" t="n">
-        <v>0.3784</v>
+        <v>0.3849</v>
       </c>
     </row>
     <row r="38">
@@ -1057,19 +1057,19 @@
         <v>1.0</v>
       </c>
       <c r="C38" t="n">
-        <v>197.92187754782003</v>
+        <v>0.2769127307346845</v>
       </c>
       <c r="D38" t="n">
-        <v>197.92187754782003</v>
+        <v>0.2769127307346845</v>
       </c>
       <c r="E38" t="n">
-        <v>4.637942173530477</v>
+        <v>4.876639186981454</v>
       </c>
       <c r="F38" t="n">
-        <v>0.030933038237028733</v>
+        <v>0.0325790567864282</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0413</v>
+        <v>0.0405</v>
       </c>
     </row>
     <row r="39">
@@ -1080,19 +1080,19 @@
         <v>1.0</v>
       </c>
       <c r="C39" t="n">
-        <v>26.925702506723184</v>
+        <v>0.02236701553072412</v>
       </c>
       <c r="D39" t="n">
-        <v>26.925702506723184</v>
+        <v>0.02236701553072412</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6309552675787164</v>
+        <v>0.3938997825905656</v>
       </c>
       <c r="F39" t="n">
-        <v>0.004208194644869881</v>
+        <v>0.002631501510187197</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4492</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="40">
@@ -1103,16 +1103,16 @@
         <v>144.0</v>
       </c>
       <c r="C40" t="n">
-        <v>6145.128442856555</v>
+        <v>8.176826641643892</v>
       </c>
       <c r="D40" t="n">
-        <v>42.67450307539274</v>
+        <v>0.05678351834474925</v>
       </c>
       <c r="E40" t="e">
         <v>#N/A</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9604167838818499</v>
+        <v>0.9620117456648537</v>
       </c>
       <c r="G40" t="e">
         <v>#N/A</v>
@@ -1126,7 +1126,7 @@
         <v>147.0</v>
       </c>
       <c r="C41" t="n">
-        <v>6398.397597779305</v>
+        <v>8.499716015413954</v>
       </c>
       <c r="D41" t="e">
         <v>#N/A</v>
